--- a/db/dummydata/local_charges.xlsx
+++ b/db/dummydata/local_charges.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="56">
   <si>
     <t>FEE</t>
   </si>
@@ -56,6 +56,9 @@
     <t>CONTAINER</t>
   </si>
   <si>
+    <t>MINIMUM</t>
+  </si>
+  <si>
     <t>Terminal Handling Charge</t>
   </si>
   <si>
@@ -92,7 +95,28 @@
     <t>FCL_40HQ</t>
   </si>
   <si>
-    <t>MINIMUM</t>
+    <t>ISPS</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Swedish Fairways Due Charge</t>
+  </si>
+  <si>
+    <t>FDC</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>PER_CBM_TON</t>
+  </si>
+  <si>
+    <t>Service Charge</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
   <si>
     <t>Booking Fee</t>
@@ -153,9 +177,6 @@
   </si>
   <si>
     <t>CFS</t>
-  </si>
-  <si>
-    <t>LCL</t>
   </si>
   <si>
     <t>PER_CBM</t>
@@ -265,30 +286,30 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1">
         <v>400.0</v>
@@ -296,25 +317,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1">
         <v>500.0</v>
@@ -322,25 +343,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="1">
         <v>500.0</v>
@@ -348,25 +369,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L5" s="1">
         <v>150.0</v>
@@ -374,25 +395,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M6" s="1">
         <v>650.0</v>
@@ -400,25 +421,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="1">
         <v>825.0</v>
@@ -426,25 +447,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1">
         <v>1230.0</v>
@@ -452,25 +473,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9" s="1">
         <v>1230.0</v>
@@ -478,25 +499,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="1">
         <v>1300.0</v>
@@ -504,25 +525,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" s="1">
         <v>2000.0</v>
@@ -530,25 +551,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" s="1">
         <v>2000.0</v>
@@ -556,25 +577,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L13" s="1">
         <v>300.0</v>
@@ -582,25 +603,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M14" s="1">
         <v>220.0</v>
@@ -608,25 +629,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15" s="1">
         <v>170.0</v>
@@ -634,25 +655,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I16" s="1">
         <v>105.0</v>
@@ -660,25 +681,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L17" s="1">
         <v>150.0</v>
@@ -686,25 +707,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L18" s="1">
         <v>300.0</v>
@@ -712,25 +733,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M19" s="1">
         <v>170.0</v>
@@ -738,25 +759,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M20" s="1">
         <v>200.0</v>
@@ -764,25 +785,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M21" s="1">
         <v>100.0</v>
@@ -844,54 +865,58 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="N2" s="1">
         <v>1450.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1">
         <v>295.0</v>
@@ -899,25 +924,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="1">
         <v>425.0</v>
@@ -925,28 +950,299 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="1">
         <v>425.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="N6" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="N7" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="N8" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="N9" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="N10" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="N11" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1">
+        <v>395.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>395.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>

--- a/db/dummydata/local_charges.xlsx
+++ b/db/dummydata/local_charges.xlsx
@@ -3,8 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Shanghai Port" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Gothenburg Port" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Gothenburg Port" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Shanghai Port" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Ningbo Port" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Dalian Port" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Qingdao Port" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="Gothenburg Airport" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="Shanghai Airport" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="Dalian Airport" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="Ningbo Airport" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="Qingdao Airport" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="Shenzhen Airport" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="Tianjin Airport" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="99">
   <si>
     <t>FEE</t>
   </si>
@@ -62,7 +72,7 @@
     <t>Terminal Handling Charge</t>
   </si>
   <si>
-    <t>ocean</t>
+    <t>Ocean</t>
   </si>
   <si>
     <t>THC</t>
@@ -107,6 +117,51 @@
     <t>FDC</t>
   </si>
   <si>
+    <t>Customs Clearance</t>
+  </si>
+  <si>
+    <t>CUST</t>
+  </si>
+  <si>
+    <t>PER_SHIPMENT</t>
+  </si>
+  <si>
+    <t>Handling Fee</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>PER_BILL</t>
+  </si>
+  <si>
+    <t>AMS/ACI/AFR</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>VGM Fee</t>
+  </si>
+  <si>
+    <t>VGM</t>
+  </si>
+  <si>
+    <t>Congestion Tax</t>
+  </si>
+  <si>
+    <t>CGT</t>
+  </si>
+  <si>
     <t>LCL</t>
   </si>
   <si>
@@ -119,80 +174,167 @@
     <t>SC</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Booking Fee (default carrier)</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Booking Fee (MAERSK)</t>
+  </si>
+  <si>
+    <t>Stuffing Fee</t>
+  </si>
+  <si>
+    <t>STF</t>
+  </si>
+  <si>
+    <t>ENS Fee</t>
+  </si>
+  <si>
+    <t>ENS</t>
+  </si>
+  <si>
+    <t>CFS Charge</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+  <si>
+    <t>Terminal Surcharge (default)</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>Terminal Surcharge (Meishan)</t>
+  </si>
+  <si>
+    <t>Bar Code</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>Port Security Fee</t>
+  </si>
+  <si>
+    <t>PSF</t>
+  </si>
+  <si>
+    <t>CFS Charge_CATEGORIES!!</t>
+  </si>
+  <si>
+    <t>Docs Fee</t>
+  </si>
+  <si>
+    <t>DOFE</t>
+  </si>
+  <si>
     <t>Booking Fee</t>
   </si>
   <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Customs Clearance</t>
-  </si>
-  <si>
-    <t>CUST</t>
-  </si>
-  <si>
-    <t>PER_SHIPMENT</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>PER_BILL</t>
-  </si>
-  <si>
-    <t>Stuffing Fee</t>
-  </si>
-  <si>
-    <t>STF</t>
-  </si>
-  <si>
-    <t>Handling Fee</t>
-  </si>
-  <si>
-    <t>HDL</t>
-  </si>
-  <si>
-    <t>ENS Fee</t>
-  </si>
-  <si>
-    <t>ENS</t>
-  </si>
-  <si>
-    <t>VGM Fee</t>
-  </si>
-  <si>
-    <t>VGM</t>
-  </si>
-  <si>
-    <t>CFS Charge</t>
-  </si>
-  <si>
-    <t>CFS</t>
-  </si>
-  <si>
     <t>PER_CBM</t>
+  </si>
+  <si>
+    <t>PER_BILL_CONTAINER</t>
+  </si>
+  <si>
+    <t>PER_SHIPMENT_CONTAINER</t>
+  </si>
+  <si>
+    <t>Documentation Handling Charge</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>Carrier Documentation</t>
+  </si>
+  <si>
+    <t>GC Documentation</t>
+  </si>
+  <si>
+    <t>Agent Fee</t>
+  </si>
+  <si>
+    <t>AGF</t>
+  </si>
+  <si>
+    <t>EIR/SEAL etc.</t>
+  </si>
+  <si>
+    <t>EIRS</t>
+  </si>
+  <si>
+    <t>Port Dues / Unloading Fee</t>
+  </si>
+  <si>
+    <t>PDUF</t>
+  </si>
+  <si>
+    <t>Port Dues</t>
+  </si>
+  <si>
+    <t>PODU</t>
+  </si>
+  <si>
+    <t>Terminal Charge</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>HAF</t>
+  </si>
+  <si>
+    <t>Export Charge</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>Scanning Fee</t>
+  </si>
+  <si>
+    <t>SCAN</t>
+  </si>
+  <si>
+    <t>PER_KG</t>
+  </si>
+  <si>
+    <t>Export Charges</t>
+  </si>
+  <si>
+    <t>EXPC</t>
+  </si>
+  <si>
+    <t>AMS/ANS Fee</t>
+  </si>
+  <si>
+    <t>AMSF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,12 +350,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -227,11 +381,2268 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.57"/>
+    <col customWidth="1" min="7" max="7" width="16.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="N2" s="1">
+        <v>1450.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1">
+        <v>295.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1">
+        <v>425.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>425.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="N6" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="N7" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="N8" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="N9" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="L11" s="1">
+        <v>650.0</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="M12" s="1">
+        <v>695.0</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="M13" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="N15" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1">
+        <v>395.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1">
+        <v>395.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="1">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="L20" s="1">
+        <v>650.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="M21" s="1">
+        <v>395.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="M22" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="N25" s="1">
+        <v>1450.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="1">
+        <v>295.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="1">
+        <v>425.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="1">
+        <v>425.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="N29" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="N30" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="N31" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="N32" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="L33" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="L34" s="1">
+        <v>650.0</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="M35" s="1">
+        <v>695.0</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="M36" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="N38" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="1">
+        <v>395.0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1">
+        <v>395.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="1">
+        <v>575.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="L43" s="1">
+        <v>650.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="M44" s="1">
+        <v>395.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="M45" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -291,13 +2702,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
@@ -306,7 +2717,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -317,13 +2728,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -332,7 +2743,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -343,13 +2754,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -358,7 +2769,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -369,13 +2780,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -384,10 +2795,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1">
         <v>150.0</v>
@@ -395,13 +2806,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -410,10 +2821,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M6" s="1">
         <v>650.0</v>
@@ -424,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -436,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -450,7 +2861,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -462,7 +2873,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
@@ -476,7 +2887,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -488,7 +2899,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -499,13 +2910,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -514,7 +2925,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -525,13 +2936,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -540,7 +2951,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
@@ -551,13 +2962,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -566,7 +2977,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
@@ -577,13 +2988,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
@@ -592,10 +3003,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L13" s="1">
         <v>300.0</v>
@@ -603,13 +3014,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -618,10 +3029,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M14" s="1">
         <v>220.0</v>
@@ -629,13 +3040,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -644,7 +3055,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
@@ -655,25 +3066,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I16" s="1">
         <v>105.0</v>
@@ -681,25 +3092,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L17" s="1">
         <v>150.0</v>
@@ -707,25 +3118,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L18" s="1">
         <v>300.0</v>
@@ -733,25 +3144,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M19" s="1">
         <v>170.0</v>
@@ -759,25 +3170,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M20" s="1">
         <v>200.0</v>
@@ -785,37 +3196,2683 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M21" s="1">
         <v>100.0</v>
       </c>
       <c r="N21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="1">
+        <v>620.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="1">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="1">
+        <v>650.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>200.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.57"/>
+    <col customWidth="1" min="6" max="7" width="19.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1">
+        <v>420.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>530.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1">
+        <v>630.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1">
+        <v>630.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="1">
+        <v>625.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1">
+        <v>985.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="1">
+        <v>985.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="1">
+        <v>950.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="1">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="1">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="1">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="1">
+        <v>230.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="1">
+        <v>230.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="L34" s="1">
+        <v>950.0</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="1">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1">
+        <v>250.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.57"/>
+    <col customWidth="1" min="6" max="7" width="19.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="1">
+        <v>770.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="1">
+        <v>475.0</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="1">
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="1">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="N19" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="1">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="N27" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.57"/>
+    <col customWidth="1" min="6" max="7" width="19.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1">
+        <v>770.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="1">
+        <v>475.0</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="1">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="N17" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="1">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="N25" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -871,16 +5928,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -889,25 +5946,26 @@
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="N2" s="1">
-        <v>1450.0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="O2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -916,24 +5974,24 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1">
-        <v>295.0</v>
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>350.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -942,24 +6000,24 @@
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="1">
-        <v>425.0</v>
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>400.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -968,281 +6026,999 @@
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="1">
-        <v>425.0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>295.0</v>
+      </c>
+      <c r="O5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="N6" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="O6" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
+        <v>450.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="N7" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="O7" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="N8" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>350.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="N9" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="N10" s="1">
-        <v>160.0</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1">
+        <v>295.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="N11" s="1">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1">
+        <v>450.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
         <v>160.0</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="M6" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1">
-        <v>395.0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>165.0</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1">
-        <v>395.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>50.0</v>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="M11" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>

--- a/db/dummydata/local_charges.xlsx
+++ b/db/dummydata/local_charges.xlsx
@@ -8,13 +8,15 @@
     <sheet state="visible" name="Ningbo Port" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="Dalian Port" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Qingdao Port" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Gothenburg Airport" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Shanghai Airport" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Dalian Airport" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Ningbo Airport" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="Qingdao Airport" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="Shenzhen Airport" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="Tianjin Airport" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="Shenzhen Port" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="Tianjin Port" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="Gothenburg Airport" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="Shanghai Airport" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="Dalian Airport" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="Ningbo Airport" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="Qingdao Airport" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="Shenzhen Airport" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="Tianjin Airport" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="116">
   <si>
     <t>FEE</t>
   </si>
@@ -156,57 +158,66 @@
     <t>VGM</t>
   </si>
   <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>PER_CBM_TON</t>
+  </si>
+  <si>
+    <t>Service Charge</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
     <t>Congestion Tax</t>
   </si>
   <si>
     <t>CGT</t>
   </si>
   <si>
-    <t>LCL</t>
-  </si>
-  <si>
-    <t>PER_CBM_TON</t>
-  </si>
-  <si>
-    <t>Service Charge</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Import</t>
   </si>
   <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>Booking Fee</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Stuffing Fee</t>
+  </si>
+  <si>
+    <t>STF</t>
+  </si>
+  <si>
+    <t>ENS Fee</t>
+  </si>
+  <si>
+    <t>ENS</t>
+  </si>
+  <si>
+    <t>CFS Charge</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+  <si>
+    <t>PER_WM</t>
+  </si>
+  <si>
     <t>Booking Fee (default carrier)</t>
   </si>
   <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
     <t>Booking Fee (MAERSK)</t>
   </si>
   <si>
-    <t>Stuffing Fee</t>
-  </si>
-  <si>
-    <t>STF</t>
-  </si>
-  <si>
-    <t>ENS Fee</t>
-  </si>
-  <si>
-    <t>ENS</t>
-  </si>
-  <si>
-    <t>CFS Charge</t>
-  </si>
-  <si>
-    <t>CFS</t>
-  </si>
-  <si>
     <t>Terminal Surcharge (default)</t>
   </si>
   <si>
@@ -237,60 +248,96 @@
     <t>DOFE</t>
   </si>
   <si>
-    <t>Booking Fee</t>
+    <t>PER_BILL_CONTAINER</t>
+  </si>
+  <si>
+    <t>PER_SHIPMENT_CONTAINER</t>
+  </si>
+  <si>
+    <t>Documentation Handling Charge</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>Carrier Documentation</t>
+  </si>
+  <si>
+    <t>GC Documentation</t>
+  </si>
+  <si>
+    <t>Agent Fee</t>
+  </si>
+  <si>
+    <t>AGF</t>
+  </si>
+  <si>
+    <t>EIR/SEAL etc.</t>
+  </si>
+  <si>
+    <t>EIRS</t>
+  </si>
+  <si>
+    <t>Port Dues / Unloading Fee</t>
+  </si>
+  <si>
+    <t>PDUF</t>
+  </si>
+  <si>
+    <t>Port Dues</t>
+  </si>
+  <si>
+    <t>PODU</t>
+  </si>
+  <si>
+    <t>MAXIMUM</t>
+  </si>
+  <si>
+    <t>Terminal Handling Charge (OMG, CHECK TABLE! Different for every carrier)</t>
+  </si>
+  <si>
+    <t>SEAL FEE</t>
+  </si>
+  <si>
+    <t>SEAL</t>
+  </si>
+  <si>
+    <t>EIR FEE</t>
+  </si>
+  <si>
+    <t>EIR</t>
+  </si>
+  <si>
+    <t>CFS Receiving Fee</t>
+  </si>
+  <si>
+    <t>Documentation Fee</t>
+  </si>
+  <si>
+    <t>Information Fee</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>Port Charge</t>
+  </si>
+  <si>
+    <t>POC</t>
   </si>
   <si>
     <t>PER_CBM</t>
   </si>
   <si>
-    <t>PER_BILL_CONTAINER</t>
-  </si>
-  <si>
-    <t>PER_SHIPMENT_CONTAINER</t>
-  </si>
-  <si>
-    <t>Documentation Handling Charge</t>
-  </si>
-  <si>
-    <t>DHC</t>
-  </si>
-  <si>
-    <t>Carrier Documentation</t>
-  </si>
-  <si>
-    <t>GC Documentation</t>
-  </si>
-  <si>
-    <t>Agent Fee</t>
-  </si>
-  <si>
-    <t>AGF</t>
-  </si>
-  <si>
-    <t>EIR/SEAL etc.</t>
-  </si>
-  <si>
-    <t>EIRS</t>
-  </si>
-  <si>
-    <t>Port Dues / Unloading Fee</t>
-  </si>
-  <si>
-    <t>PDUF</t>
-  </si>
-  <si>
-    <t>Port Dues</t>
-  </si>
-  <si>
-    <t>PODU</t>
-  </si>
-  <si>
     <t>Terminal Charge</t>
   </si>
   <si>
     <t>Air</t>
   </si>
   <si>
+    <t>PER_KG</t>
+  </si>
+  <si>
     <t>HAF</t>
   </si>
   <si>
@@ -306,7 +353,13 @@
     <t>SCAN</t>
   </si>
   <si>
-    <t>PER_KG</t>
+    <t>Manifest Entry</t>
+  </si>
+  <si>
+    <t>MANE</t>
+  </si>
+  <si>
+    <t>CHS</t>
   </si>
   <si>
     <t>Export Charges</t>
@@ -393,6 +446,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -859,16 +920,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
@@ -877,26 +938,31 @@
         <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="N15" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="O15" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H15" s="1">
+        <v>395.0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>395.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -905,31 +971,30 @@
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" s="1">
-        <v>395.0</v>
+        <v>40.0</v>
       </c>
       <c r="I16" s="1">
-        <v>165.0</v>
-      </c>
-      <c r="N16" s="1"/>
+        <v>40.0</v>
+      </c>
       <c r="O16" s="1">
-        <v>395.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -938,30 +1003,30 @@
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="I17" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="O17" s="1">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -970,30 +1035,24 @@
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>50.0</v>
+        <v>33</v>
+      </c>
+      <c r="L18" s="1">
+        <v>400.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -1004,22 +1063,24 @@
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="L19" s="1">
-        <v>400.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -1028,32 +1089,32 @@
         <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="L20" s="1">
-        <v>650.0</v>
+      <c r="M20" s="1">
+        <v>395.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>38</v>
@@ -1061,93 +1122,95 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="M21" s="1">
-        <v>395.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
+      <c r="A22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="M22" s="1">
-        <v>40.0</v>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5">
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
+      <c r="A23" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5">
-        <v>25.0</v>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="1">
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="1">
-        <v>15.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="M24" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -1525,13 +1588,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
@@ -1562,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>50</v>
@@ -1571,7 +1634,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H39" s="1">
         <v>395.0</v>
@@ -1595,7 +1658,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>50</v>
@@ -1604,7 +1667,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H40" s="1">
         <v>40.0</v>
@@ -1618,16 +1681,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>50</v>
@@ -1636,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H41" s="1">
         <v>50.0</v>
@@ -1659,7 +1722,7 @@
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>50</v>
@@ -1685,7 +1748,7 @@
         <v>35</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>50</v>
@@ -1713,7 +1776,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>50</v>
@@ -1732,22 +1795,22 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>38</v>
@@ -1755,68 +1818,35 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="M45" s="1">
-        <v>40.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="5">
-        <v>25.0</v>
-      </c>
+      <c r="M46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="1"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1879,16 +1909,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -1897,7 +1927,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1">
         <v>0.15</v>
@@ -1911,13 +1941,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -1937,13 +1967,13 @@
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -1960,16 +1990,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -1986,16 +2016,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>50</v>
@@ -2004,7 +2034,7 @@
         <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1">
         <v>0.15</v>
@@ -2018,13 +2048,13 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
@@ -2044,13 +2074,13 @@
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>50</v>
@@ -2067,16 +2097,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>50</v>
@@ -2152,31 +2182,31 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="O2" s="1">
-        <v>25.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="3">
@@ -2184,25 +2214,25 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="1">
-        <v>55.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="4">
@@ -2210,77 +2240,79 @@
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="1">
-        <v>35.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="1">
-        <v>70.0</v>
+        <v>38</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>150.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.15</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="M6" s="1">
+        <v>100.0</v>
       </c>
       <c r="O6" s="1">
         <v>25.0</v>
@@ -2288,80 +2320,140 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="1">
-        <v>55.0</v>
+        <v>103</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>200.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="1">
-        <v>35.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="1">
-        <v>70.0</v>
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="M11" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -2425,16 +2517,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -2443,7 +2535,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1">
         <v>0.15</v>
@@ -2457,13 +2549,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -2483,13 +2575,13 @@
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -2506,16 +2598,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -2532,16 +2624,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>50</v>
@@ -2550,7 +2642,7 @@
         <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1">
         <v>0.15</v>
@@ -2564,13 +2656,13 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
@@ -2590,13 +2682,13 @@
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>50</v>
@@ -2613,16 +2705,562 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>50</v>
@@ -2699,16 +3337,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
@@ -2717,7 +3358,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -2728,13 +3369,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -2743,7 +3384,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -2754,13 +3395,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -2769,7 +3410,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -2795,7 +3436,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>33</v>
@@ -2821,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>38</v>
@@ -2847,7 +3488,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -2873,7 +3514,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
@@ -2899,7 +3540,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -2925,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -2951,7 +3592,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
@@ -2977,7 +3618,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
@@ -3003,7 +3644,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>33</v>
@@ -3029,7 +3670,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>38</v>
@@ -3055,7 +3696,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
@@ -3075,18 +3716,18 @@
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="1">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1">
         <v>105.0</v>
       </c>
     </row>
@@ -3101,13 +3742,13 @@
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
@@ -3127,13 +3768,13 @@
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
@@ -3153,13 +3794,13 @@
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>38</v>
@@ -3179,13 +3820,13 @@
         <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>38</v>
@@ -3205,13 +3846,13 @@
         <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>38</v>
@@ -3232,13 +3873,13 @@
         <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>33</v>
@@ -3258,13 +3899,13 @@
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>38</v>
@@ -3284,13 +3925,13 @@
         <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>33</v>
@@ -3310,16 +3951,16 @@
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" s="1">
         <v>200.0</v>
@@ -3396,13 +4037,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
@@ -3411,7 +4052,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -3422,13 +4063,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -3437,7 +4078,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -3448,13 +4089,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -3463,7 +4104,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -3474,13 +4115,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
@@ -3489,7 +4130,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -3500,13 +4141,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -3515,7 +4156,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
@@ -3526,13 +4167,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -3541,7 +4182,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -3567,7 +4208,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>33</v>
@@ -3593,7 +4234,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>38</v>
@@ -3619,7 +4260,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -3645,7 +4286,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
@@ -3671,7 +4312,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
@@ -3697,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>21</v>
@@ -3723,7 +4364,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>21</v>
@@ -3749,7 +4390,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
@@ -3775,7 +4416,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>33</v>
@@ -3801,7 +4442,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>38</v>
@@ -3827,7 +4468,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>21</v>
@@ -3847,16 +4488,16 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1">
         <v>85.0</v>
@@ -3879,13 +4520,13 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>33</v>
@@ -3905,13 +4546,13 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>33</v>
@@ -3931,13 +4572,13 @@
         <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>38</v>
@@ -3957,13 +4598,13 @@
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>38</v>
@@ -3983,13 +4624,13 @@
         <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>38</v>
@@ -4016,7 +4657,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
@@ -4042,7 +4683,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>38</v>
@@ -4053,13 +4694,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
@@ -4068,7 +4709,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>21</v>
@@ -4079,13 +4720,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
@@ -4094,7 +4735,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>21</v>
@@ -4105,13 +4746,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
@@ -4120,7 +4761,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>21</v>
@@ -4131,13 +4772,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>24</v>
@@ -4146,7 +4787,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>21</v>
@@ -4157,13 +4798,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>25</v>
@@ -4172,7 +4813,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>21</v>
@@ -4183,13 +4824,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
@@ -4198,7 +4839,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>21</v>
@@ -4224,7 +4865,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>33</v>
@@ -4235,7 +4876,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>16</v>
@@ -4244,13 +4885,13 @@
         <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>33</v>
@@ -4273,13 +4914,13 @@
         <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>33</v>
@@ -4299,13 +4940,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>33</v>
@@ -4316,22 +4957,22 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>38</v>
@@ -4351,13 +4992,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>38</v>
@@ -4377,13 +5018,13 @@
         <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>38</v>
@@ -4462,13 +5103,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -4477,10 +5118,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" s="1">
         <v>100.0</v>
@@ -4506,10 +5147,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L3" s="1">
         <v>200.0</v>
@@ -4535,10 +5176,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" s="1">
         <v>200.0</v>
@@ -4565,10 +5206,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" s="1">
         <v>200.0</v>
@@ -4580,13 +5221,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -4595,7 +5236,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>33</v>
@@ -4623,7 +5264,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -4649,7 +5290,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
@@ -4675,7 +5316,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -4701,7 +5342,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -4727,7 +5368,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
@@ -4753,7 +5394,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
@@ -4764,7 +5405,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -4779,7 +5420,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>38</v>
@@ -4791,7 +5432,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -4806,7 +5447,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>38</v>
@@ -4818,13 +5459,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -4833,7 +5474,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>38</v>
@@ -4860,7 +5501,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>33</v>
@@ -4886,7 +5527,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>38</v>
@@ -4912,7 +5553,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>21</v>
@@ -4923,13 +5564,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -4938,7 +5579,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>21</v>
@@ -4952,25 +5593,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1">
         <v>125.0</v>
@@ -4991,13 +5632,13 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>33</v>
@@ -5008,7 +5649,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -5017,13 +5658,13 @@
         <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>38</v>
@@ -5034,7 +5675,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
@@ -5043,13 +5684,13 @@
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>38</v>
@@ -5069,13 +5710,13 @@
         <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>38</v>
@@ -5087,7 +5728,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
@@ -5096,13 +5737,13 @@
         <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
@@ -5122,13 +5763,13 @@
         <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>38</v>
@@ -5139,22 +5780,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>38</v>
@@ -5229,13 +5870,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -5244,7 +5885,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -5256,13 +5897,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
@@ -5271,7 +5912,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -5283,13 +5924,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -5298,7 +5939,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -5326,7 +5967,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -5352,7 +5993,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
@@ -5378,7 +6019,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -5404,7 +6045,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
@@ -5430,7 +6071,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -5456,7 +6097,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -5467,7 +6108,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -5482,7 +6123,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>38</v>
@@ -5494,7 +6135,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -5509,7 +6150,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>38</v>
@@ -5521,13 +6162,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
@@ -5536,7 +6177,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>38</v>
@@ -5563,7 +6204,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>33</v>
@@ -5589,7 +6230,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>38</v>
@@ -5615,7 +6256,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>21</v>
@@ -5626,13 +6267,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
@@ -5641,7 +6282,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>21</v>
@@ -5655,142 +6296,142 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="L18" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="L18" s="1">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="1">
-        <v>200.0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H19" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="M19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M20" s="1">
-        <v>200.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M21" s="1">
-        <v>200.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>105.0</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>200.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
@@ -5799,73 +6440,47 @@
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="1">
-        <v>50.0</v>
+        <v>38</v>
+      </c>
+      <c r="M23" s="1">
+        <v>207.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M24" s="1">
-        <v>207.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="1">
         <v>150.0</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5878,6 +6493,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.57"/>
+    <col customWidth="1" min="6" max="7" width="19.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -5925,85 +6544,90 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="O2" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>1150.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="1">
-        <v>350.0</v>
+        <v>21</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1">
+        <v>1850.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="1">
-        <v>400.0</v>
+        <v>21</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>1850.0</v>
       </c>
     </row>
     <row r="5">
@@ -6011,185 +6635,524 @@
         <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1">
-        <v>295.0</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="1">
-        <v>450.0</v>
+        <v>21</v>
+      </c>
+      <c r="N6" s="1">
+        <v>50.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1">
-        <v>250.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M7" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="N7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="1">
-        <v>350.0</v>
-      </c>
+        <v>300.0</v>
+      </c>
+      <c r="N8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="1">
-        <v>400.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M9" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1">
-        <v>295.0</v>
+        <v>21</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>600.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="1">
-        <v>450.0</v>
+      <c r="L18" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="1">
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
@@ -6203,6 +7166,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.57"/>
+    <col customWidth="1" min="6" max="7" width="19.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -6250,167 +7217,790 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>200.0</v>
+        <v>21</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>260.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="1">
-        <v>150.0</v>
+        <v>21</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1">
+        <v>450.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="1">
-        <v>150.0</v>
+        <v>21</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>450.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="1">
-        <v>200.0</v>
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>770.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="1">
-        <v>150.0</v>
+        <v>21</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1200.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="1">
+        <v>207.5</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="1">
+        <v>475.0</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="1">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="1">
-        <v>150.0</v>
+      <c r="L28" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>
@@ -6474,57 +8064,56 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="O2" s="1">
-        <v>25.0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="O2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="1">
-        <v>55.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="4">
@@ -6532,158 +8121,211 @@
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="1">
-        <v>35.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="J5" s="1"/>
       <c r="L5" s="1">
-        <v>70.0</v>
-      </c>
+        <v>295.0</v>
+      </c>
+      <c r="O5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="O6" s="1">
-        <v>25.0</v>
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
+        <v>450.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="J7" s="1"/>
       <c r="L7" s="1">
-        <v>55.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="1">
-        <v>35.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="1">
-        <v>70.0</v>
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1">
+        <v>295.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1">
+        <v>450.0</v>
       </c>
     </row>
   </sheetData>
@@ -6747,28 +8389,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="1">
         <v>200.0</v>
@@ -6779,19 +8421,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>33</v>
@@ -6802,223 +8444,109 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="1">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <v>150.0</v>
+        <v>103</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>200.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="M6" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>25.0</v>
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
+        <v>150.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="O7" s="1">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L7" s="1">
         <v>150.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="1">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="M11" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>25.0</v>
       </c>
     </row>
   </sheetData>

--- a/db/dummydata/local_charges.xlsx
+++ b/db/dummydata/local_charges.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="114">
   <si>
     <t>FEE</t>
   </si>
@@ -71,6 +71,9 @@
     <t>MINIMUM</t>
   </si>
   <si>
+    <t>WM</t>
+  </si>
+  <si>
     <t>Terminal Handling Charge</t>
   </si>
   <si>
@@ -143,21 +146,15 @@
     <t>PER_BILL</t>
   </si>
   <si>
-    <t>AMS/ACI/AFR</t>
-  </si>
-  <si>
-    <t>AAA</t>
+    <t>VGM Fee</t>
+  </si>
+  <si>
+    <t>VGM</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>VGM Fee</t>
-  </si>
-  <si>
-    <t>VGM</t>
-  </si>
-  <si>
     <t>LCL</t>
   </si>
   <si>
@@ -170,18 +167,15 @@
     <t>SC</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
     <t>Congestion Tax</t>
   </si>
   <si>
     <t>CGT</t>
   </si>
   <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>WM</t>
-  </si>
-  <si>
     <t>Booking Fee</t>
   </si>
   <si>
@@ -290,6 +284,15 @@
     <t>PODU</t>
   </si>
   <si>
+    <t>CFS Receiving Fee</t>
+  </si>
+  <si>
+    <t>Information Fee</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
     <t>MAXIMUM</t>
   </si>
   <si>
@@ -308,18 +311,9 @@
     <t>EIR</t>
   </si>
   <si>
-    <t>CFS Receiving Fee</t>
-  </si>
-  <si>
     <t>Documentation Fee</t>
   </si>
   <si>
-    <t>Information Fee</t>
-  </si>
-  <si>
-    <t>INF</t>
-  </si>
-  <si>
     <t>Port Charge</t>
   </si>
   <si>
@@ -335,31 +329,31 @@
     <t>Air</t>
   </si>
   <si>
+    <t>HAF</t>
+  </si>
+  <si>
+    <t>Export Charge</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>Scanning Fee</t>
+  </si>
+  <si>
+    <t>SCAN</t>
+  </si>
+  <si>
+    <t>Manifest Entry</t>
+  </si>
+  <si>
+    <t>MANE</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
     <t>PER_KG</t>
-  </si>
-  <si>
-    <t>HAF</t>
-  </si>
-  <si>
-    <t>Export Charge</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>Scanning Fee</t>
-  </si>
-  <si>
-    <t>SCAN</t>
-  </si>
-  <si>
-    <t>Manifest Entry</t>
-  </si>
-  <si>
-    <t>MANE</t>
-  </si>
-  <si>
-    <t>CHS</t>
   </si>
   <si>
     <t>Export Charges</t>
@@ -378,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -388,13 +382,23 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -403,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -421,6 +425,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,28 +550,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1"/>
       <c r="N2" s="1">
@@ -573,25 +583,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1">
         <v>295.0</v>
@@ -599,25 +609,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1">
         <v>425.0</v>
@@ -625,25 +635,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1">
         <v>425.0</v>
@@ -651,25 +661,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -680,25 +690,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -709,25 +719,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -738,25 +748,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -767,25 +777,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -797,25 +807,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -827,25 +837,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -856,997 +866,850 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="M13" s="1">
-        <v>40.0</v>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5">
+        <v>25.0</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
+      <c r="A14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5">
-        <v>25.0</v>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1">
+        <v>395.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>165.0</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1">
+        <v>395.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H15" s="1">
-        <v>395.0</v>
+        <v>40.0</v>
       </c>
       <c r="I15" s="1">
-        <v>165.0</v>
-      </c>
-      <c r="N15" s="1"/>
+        <v>40.0</v>
+      </c>
       <c r="O15" s="1">
-        <v>395.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H16" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="I16" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="O16" s="1">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>50.0</v>
+        <v>34</v>
+      </c>
+      <c r="L17" s="1">
+        <v>400.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="L18" s="1">
-        <v>400.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="L19" s="1">
-        <v>650.0</v>
+      <c r="M19" s="1">
+        <v>395.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="M20" s="1">
-        <v>395.0</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5">
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="M21" s="1">
-        <v>40.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
+      <c r="A22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="5">
-        <v>25.0</v>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="N22" s="1">
+        <v>1450.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="1">
-        <v>15.0</v>
+        <v>22</v>
+      </c>
+      <c r="N23" s="1">
+        <v>295.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="M24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N24" s="1">
+        <v>425.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>22</v>
+      </c>
       <c r="N25" s="1">
-        <v>1450.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="N26" s="1">
-        <v>295.0</v>
-      </c>
+        <v>15.0</v>
+      </c>
+      <c r="O26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="N27" s="1">
-        <v>425.0</v>
-      </c>
+        <v>80.0</v>
+      </c>
+      <c r="O27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="N28" s="1">
-        <v>425.0</v>
-      </c>
+        <v>160.0</v>
+      </c>
+      <c r="O28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="N29" s="1">
-        <v>15.0</v>
+        <v>160.0</v>
       </c>
       <c r="O29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="N30" s="1">
-        <v>80.0</v>
-      </c>
+      <c r="L30" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="N31" s="1">
-        <v>160.0</v>
-      </c>
+      <c r="L31" s="1">
+        <v>650.0</v>
+      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="N32" s="1">
-        <v>160.0</v>
-      </c>
+      <c r="M32" s="1">
+        <v>695.0</v>
+      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="L33" s="1">
-        <v>575.0</v>
-      </c>
-      <c r="N33" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="N33" s="1">
+        <v>40.0</v>
+      </c>
       <c r="O33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="L34" s="1">
-        <v>650.0</v>
+        <v>44</v>
+      </c>
+      <c r="H34" s="1">
+        <v>395.0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>165.0</v>
       </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1">
+        <v>395.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="M35" s="1">
-        <v>695.0</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="H35" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>80.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="M36" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="H36" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
+      <c r="A37" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="1">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="N38" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="O38" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="L38" s="1">
+        <v>650.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="1">
-        <v>395.0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>165.0</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1">
+        <v>39</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="M39" s="1">
         <v>395.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>80.0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="M40" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>50.0</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L42" s="1">
-        <v>575.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="L43" s="1">
-        <v>650.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="M44" s="1">
-        <v>395.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="M45" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1906,28 +1769,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1">
         <v>0.15</v>
@@ -1938,25 +1804,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>55.0</v>
@@ -1964,25 +1830,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>35.0</v>
@@ -1990,25 +1856,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1">
         <v>70.0</v>
@@ -2016,25 +1882,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1">
         <v>0.15</v>
@@ -2045,25 +1911,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1">
         <v>55.0</v>
@@ -2071,25 +1937,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>35.0</v>
@@ -2097,25 +1963,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1">
         <v>70.0</v>
@@ -2179,28 +2045,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1">
         <v>0.6</v>
@@ -2211,25 +2080,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>150.0</v>
@@ -2237,25 +2106,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>160.0</v>
@@ -2263,25 +2132,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -2290,25 +2159,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1"/>
       <c r="M6" s="1">
@@ -2320,25 +2189,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1">
         <v>0.6</v>
@@ -2349,25 +2218,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1">
         <v>150.0</v>
@@ -2375,25 +2244,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L9" s="1">
         <v>160.0</v>
@@ -2401,25 +2270,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2428,25 +2297,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1"/>
       <c r="M11" s="1">
@@ -2514,28 +2383,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1">
         <v>0.15</v>
@@ -2546,25 +2418,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>55.0</v>
@@ -2572,25 +2444,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>35.0</v>
@@ -2598,25 +2470,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1">
         <v>70.0</v>
@@ -2624,25 +2496,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1">
         <v>0.15</v>
@@ -2653,25 +2525,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1">
         <v>55.0</v>
@@ -2679,25 +2551,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>35.0</v>
@@ -2705,25 +2577,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1">
         <v>70.0</v>
@@ -2787,28 +2659,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1">
         <v>0.15</v>
@@ -2819,25 +2694,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>55.0</v>
@@ -2845,25 +2720,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>35.0</v>
@@ -2871,25 +2746,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1">
         <v>70.0</v>
@@ -2897,25 +2772,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1">
         <v>0.15</v>
@@ -2926,25 +2801,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1">
         <v>55.0</v>
@@ -2952,25 +2827,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>35.0</v>
@@ -2978,25 +2853,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1">
         <v>70.0</v>
@@ -3060,28 +2935,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1">
         <v>0.15</v>
@@ -3092,25 +2970,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>55.0</v>
@@ -3118,25 +2996,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>35.0</v>
@@ -3144,25 +3022,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1">
         <v>70.0</v>
@@ -3170,25 +3048,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1">
         <v>0.15</v>
@@ -3199,25 +3077,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1">
         <v>55.0</v>
@@ -3225,25 +3103,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>35.0</v>
@@ -3251,25 +3129,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1">
         <v>70.0</v>
@@ -3338,30 +3216,30 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1">
         <v>400.0</v>
@@ -3369,25 +3247,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1">
         <v>500.0</v>
@@ -3395,25 +3273,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1">
         <v>500.0</v>
@@ -3421,25 +3299,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1">
         <v>150.0</v>
@@ -3447,25 +3325,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1">
         <v>650.0</v>
@@ -3473,25 +3351,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="1">
         <v>825.0</v>
@@ -3499,25 +3377,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1">
         <v>1230.0</v>
@@ -3525,25 +3403,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1">
         <v>1230.0</v>
@@ -3551,25 +3429,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1">
         <v>1300.0</v>
@@ -3577,25 +3455,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" s="1">
         <v>2000.0</v>
@@ -3603,25 +3481,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="1">
         <v>2000.0</v>
@@ -3629,25 +3507,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L13" s="1">
         <v>300.0</v>
@@ -3655,25 +3533,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="1">
         <v>220.0</v>
@@ -3681,25 +3559,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="1">
         <v>170.0</v>
@@ -3707,25 +3585,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="P16" s="1">
         <v>105.0</v>
@@ -3733,25 +3611,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L17" s="1">
         <v>150.0</v>
@@ -3759,25 +3637,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L18" s="1">
         <v>300.0</v>
@@ -3785,25 +3663,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="1">
         <v>170.0</v>
@@ -3811,25 +3689,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20" s="1">
         <v>200.0</v>
@@ -3837,25 +3715,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M21" s="1">
         <v>100.0</v>
@@ -3864,25 +3742,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L22" s="1">
         <v>620.0</v>
@@ -3890,25 +3768,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="1">
         <v>450.0</v>
@@ -3916,25 +3794,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L24" s="1">
         <v>650.0</v>
@@ -3942,25 +3820,25 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H25" s="1">
         <v>200.0</v>
@@ -4034,28 +3912,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1">
         <v>420.0</v>
@@ -4063,25 +3944,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1">
         <v>550.0</v>
@@ -4089,25 +3970,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1">
         <v>550.0</v>
@@ -4115,25 +3996,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1">
         <v>530.0</v>
@@ -4141,25 +4022,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" s="1">
         <v>630.0</v>
@@ -4167,25 +4048,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="1">
         <v>630.0</v>
@@ -4193,25 +4074,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1">
         <v>120.0</v>
@@ -4219,25 +4100,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" s="1">
         <v>550.0</v>
@@ -4245,25 +4126,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1">
         <v>625.0</v>
@@ -4271,25 +4152,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" s="1">
         <v>985.0</v>
@@ -4297,25 +4178,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="1">
         <v>985.0</v>
@@ -4323,25 +4204,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" s="1">
         <v>950.0</v>
@@ -4349,25 +4230,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14" s="1">
         <v>1350.0</v>
@@ -4375,25 +4256,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="1">
         <v>1350.0</v>
@@ -4401,25 +4282,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L16" s="1">
         <v>300.0</v>
@@ -4427,25 +4308,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17" s="1">
         <v>200.0</v>
@@ -4453,25 +4334,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" s="1">
         <v>100.0</v>
@@ -4479,25 +4360,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H19" s="1">
         <v>85.0</v>
@@ -4511,25 +4392,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L20" s="1">
         <v>120.0</v>
@@ -4537,25 +4418,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L21" s="1">
         <v>250.0</v>
@@ -4563,25 +4444,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M22" s="1">
         <v>200.0</v>
@@ -4589,25 +4470,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="1">
         <v>200.0</v>
@@ -4615,25 +4496,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24" s="1">
         <v>100.0</v>
@@ -4642,25 +4523,25 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25" s="1">
         <v>500.0</v>
@@ -4668,25 +4549,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M26" s="1">
         <v>900.0</v>
@@ -4694,25 +4575,25 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N27" s="1">
         <v>400.0</v>
@@ -4720,25 +4601,25 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28" s="1">
         <v>600.0</v>
@@ -4746,25 +4627,25 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N29" s="1">
         <v>10.0</v>
@@ -4772,25 +4653,25 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N30" s="1">
         <v>140.0</v>
@@ -4798,25 +4679,25 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N31" s="1">
         <v>230.0</v>
@@ -4824,25 +4705,25 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N32" s="1">
         <v>230.0</v>
@@ -4850,25 +4731,25 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L33" s="1">
         <v>300.0</v>
@@ -4876,25 +4757,25 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4905,25 +4786,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L35" s="1">
         <v>500.0</v>
@@ -4931,25 +4812,25 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L36" s="1">
         <v>300.0</v>
@@ -4957,25 +4838,25 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M37" s="1">
         <v>200.0</v>
@@ -4983,25 +4864,25 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M38" s="1">
         <v>800.0</v>
@@ -5009,25 +4890,25 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I39" s="1">
         <v>50.0</v>
@@ -5100,28 +4981,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M2" s="1">
         <v>100.0</v>
@@ -5132,25 +5016,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L3" s="1">
         <v>200.0</v>
@@ -5161,25 +5045,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="1">
         <v>200.0</v>
@@ -5191,25 +5075,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L5" s="1">
         <v>200.0</v>
@@ -5221,25 +5105,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1">
         <v>50.0</v>
@@ -5249,25 +5133,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="1">
         <v>180.0</v>
@@ -5275,25 +5159,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1">
         <v>240.0</v>
@@ -5301,25 +5185,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1">
         <v>240.0</v>
@@ -5327,25 +5211,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1">
         <v>770.0</v>
@@ -5353,25 +5237,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" s="1">
         <v>1200.0</v>
@@ -5379,25 +5263,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="1">
         <v>1200.0</v>
@@ -5405,25 +5289,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1">
         <v>475.0</v>
@@ -5432,25 +5316,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="1">
         <v>200.0</v>
@@ -5459,25 +5343,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1">
         <v>150.0</v>
@@ -5486,25 +5370,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L16" s="1">
         <v>350.0</v>
@@ -5512,25 +5396,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17" s="1">
         <v>207.5</v>
@@ -5538,25 +5422,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" s="1">
         <v>100.0</v>
@@ -5564,25 +5448,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -5593,25 +5477,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H20" s="1">
         <v>125.0</v>
@@ -5623,25 +5507,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L21" s="1">
         <v>200.0</v>
@@ -5649,25 +5533,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M22" s="1">
         <v>200.0</v>
@@ -5675,25 +5559,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="1">
         <v>200.0</v>
@@ -5701,25 +5585,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24" s="1">
         <v>105.0</v>
@@ -5728,25 +5612,25 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25" s="1">
         <v>50.0</v>
@@ -5754,25 +5638,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M26" s="1">
         <v>207.5</v>
@@ -5780,25 +5664,25 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27" s="1">
         <v>150.0</v>
@@ -5867,28 +5751,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
@@ -5897,25 +5784,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="1">
@@ -5924,25 +5811,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -5952,25 +5839,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1">
         <v>300.0</v>
@@ -5978,25 +5865,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" s="1">
         <v>600.0</v>
@@ -6004,25 +5891,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="1">
         <v>600.0</v>
@@ -6030,25 +5917,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1">
         <v>770.0</v>
@@ -6056,25 +5943,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1">
         <v>1200.0</v>
@@ -6082,25 +5969,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1">
         <v>1200.0</v>
@@ -6108,25 +5995,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="1">
         <v>475.0</v>
@@ -6135,25 +6022,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="1">
         <v>200.0</v>
@@ -6162,25 +6049,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1">
         <v>150.0</v>
@@ -6189,25 +6076,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L14" s="1">
         <v>200.0</v>
@@ -6215,25 +6102,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1">
         <v>207.5</v>
@@ -6241,25 +6128,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N16" s="1">
         <v>50.0</v>
@@ -6267,25 +6154,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -6296,25 +6183,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L18" s="1">
         <v>200.0</v>
@@ -6322,25 +6209,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1">
         <v>101.0</v>
@@ -6352,25 +6239,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20" s="1">
         <v>235.0</v>
@@ -6378,25 +6265,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M21" s="1">
         <v>45.0</v>
@@ -6404,25 +6291,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -6431,25 +6318,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="1">
         <v>207.5</v>
@@ -6457,25 +6344,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24" s="1">
         <v>150.0</v>
@@ -6545,30 +6432,33 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
@@ -6577,25 +6467,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="1">
@@ -6604,25 +6494,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -6632,25 +6522,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1">
         <v>50.0</v>
@@ -6658,25 +6548,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" s="1">
         <v>50.0</v>
@@ -6687,22 +6577,22 @@
         <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="1">
         <v>500.0</v>
@@ -6711,25 +6601,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>300.0</v>
@@ -6738,25 +6628,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" s="1">
         <v>200.0</v>
@@ -6765,25 +6655,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
@@ -6798,25 +6688,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="1">
         <v>200.0</v>
@@ -6826,25 +6716,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="1">
         <v>300.0</v>
@@ -6854,25 +6744,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1">
         <v>350.0</v>
@@ -6882,25 +6772,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="1">
         <v>350.0</v>
@@ -6910,25 +6800,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
@@ -6938,25 +6828,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
@@ -6966,25 +6856,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
@@ -6994,25 +6884,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L18" s="1">
         <v>165.0</v>
@@ -7022,25 +6912,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -7049,25 +6939,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I20" s="1">
         <v>150.0</v>
@@ -7082,22 +6972,22 @@
         <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M21" s="1">
         <v>500.0</v>
@@ -7105,25 +6995,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L22" s="1">
         <v>300.0</v>
@@ -7131,25 +7021,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="1">
         <v>200.0</v>
@@ -7218,30 +7108,33 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
@@ -7250,25 +7143,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="1">
@@ -7277,25 +7170,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -7305,25 +7198,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1">
         <v>770.0</v>
@@ -7331,25 +7224,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" s="1">
         <v>1200.0</v>
@@ -7357,25 +7250,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
@@ -7384,25 +7277,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>350.0</v>
@@ -7411,25 +7304,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" s="1">
         <v>207.5</v>
@@ -7438,25 +7331,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
@@ -7467,25 +7360,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="1">
         <v>200.0</v>
@@ -7495,25 +7388,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="1">
         <v>475.0</v>
@@ -7523,25 +7416,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
@@ -7554,25 +7447,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
@@ -7585,25 +7478,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
@@ -7616,25 +7509,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" s="1">
         <v>100.0</v>
@@ -7644,25 +7537,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
@@ -7672,25 +7565,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
@@ -7700,25 +7593,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
@@ -7728,25 +7621,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1">
@@ -7756,25 +7649,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -7784,25 +7677,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -7812,25 +7705,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I23" s="1"/>
       <c r="M23" s="1"/>
@@ -7841,25 +7734,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H24" s="1">
         <v>125.0</v>
@@ -7874,22 +7767,22 @@
         <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -7898,25 +7791,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M26" s="1">
         <v>200.0</v>
@@ -7924,25 +7817,25 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27" s="1">
         <v>207.5</v>
@@ -7950,25 +7843,25 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L28" s="1">
         <v>200.0</v>
@@ -7976,25 +7869,25 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M29" s="1">
         <v>105.0</v>
@@ -8061,28 +7954,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1"/>
       <c r="L2" s="1">
@@ -8092,25 +7988,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>350.0</v>
@@ -8118,25 +8014,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>400.0</v>
@@ -8144,25 +8040,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1"/>
       <c r="L5" s="1">
@@ -8172,25 +8068,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1">
         <v>450.0</v>
@@ -8198,25 +8094,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1"/>
       <c r="L7" s="1">
@@ -8225,25 +8121,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1">
         <v>350.0</v>
@@ -8251,25 +8147,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L9" s="1">
         <v>400.0</v>
@@ -8277,25 +8173,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" s="1">
@@ -8304,25 +8200,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1">
         <v>450.0</v>
@@ -8386,28 +8282,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1">
         <v>0.5</v>
@@ -8418,25 +8317,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>150.0</v>
@@ -8444,25 +8343,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1">
         <v>150.0</v>
@@ -8470,25 +8369,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J5" s="1">
         <v>0.5</v>
@@ -8499,25 +8398,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1">
         <v>150.0</v>
@@ -8525,25 +8424,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1">
         <v>150.0</v>
